--- a/CapEx_2026.xlsx
+++ b/CapEx_2026.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>โรงงาน</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>งบประมาณ</t>
+  </si>
+  <si>
+    <t>%ความคืบหน้า</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -636,7 +639,7 @@
     <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -658,8 +661,11 @@
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="29">
+      <c r="H1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29">
       <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
@@ -681,8 +687,11 @@
       <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29">
+      <c r="H2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -704,8 +713,11 @@
       <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="29">
+      <c r="H3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -727,8 +739,11 @@
       <c r="G4" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="29">
+      <c r="H4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -748,8 +763,11 @@
         <v>17</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="29">
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +787,11 @@
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="29">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +811,11 @@
         <v>19</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="29">
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +835,11 @@
         <v>20</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -834,8 +861,11 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="29">
+      <c r="H9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -855,8 +885,11 @@
         <v>50</v>
       </c>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -876,8 +909,11 @@
         <v>29</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -897,8 +933,11 @@
         <v>32</v>
       </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="29">
+      <c r="H12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -920,8 +959,11 @@
       <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -941,8 +983,11 @@
         <v>38</v>
       </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -962,8 +1007,11 @@
         <v>41</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -985,8 +1033,11 @@
       <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1006,8 +1057,11 @@
         <v>32</v>
       </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="29">
+      <c r="H17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1027,8 +1081,11 @@
         <v>52</v>
       </c>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="29">
+      <c r="H18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1048,8 +1105,11 @@
         <v>61</v>
       </c>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="29">
+      <c r="H19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1069,8 +1129,11 @@
         <v>61</v>
       </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="29">
+      <c r="H20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1090,8 +1153,11 @@
         <v>61</v>
       </c>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="29">
+      <c r="H21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1111,8 +1177,11 @@
         <v>61</v>
       </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1132,8 +1201,11 @@
         <v>58</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1153,8 +1225,11 @@
         <v>58</v>
       </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1174,8 +1249,11 @@
         <v>58</v>
       </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1195,8 +1273,11 @@
         <v>58</v>
       </c>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="D27" s="6"/>
     </row>
   </sheetData>
